--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW26.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW26.xlsx
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.33860657892949997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>1.411531579458</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="D162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
       <c r="L162" t="n">
-        <v>0.352901315718</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="D251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="E251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="F251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="G251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="H251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="I251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="J251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="K251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
       <c r="L251" t="n">
-        <v>1.0367644736295</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>5.595975</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9831,37 +9831,37 @@
         <v>256.0</v>
       </c>
       <c r="B257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="D257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="E257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="F257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="G257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="H257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="I257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="J257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="K257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="L257" t="n">
-        <v>2.6333999999999995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="D269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="G269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="I269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="J269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="K269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
       <c r="L269" t="n">
-        <v>0.923649999853</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="D315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="E315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="F315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="G315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="H315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="I315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="J315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="K315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="L315" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="316">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>4.10328947259</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13783,37 +13783,37 @@
         <v>360.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="C361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="D361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="E361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="G361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="I361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="J361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="K361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
       <c r="L361" t="n">
-        <v>1.263900000198</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="362">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>0.705802631436</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="C406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="D406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="E406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="F406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="G406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="H406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="I406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="J406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="K406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
       <c r="L406" t="n">
-        <v>0.65835</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="407">
@@ -15569,37 +15569,37 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="C408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="D408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="E408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="F408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="G408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="H408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="I408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="J408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="K408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
       <c r="L408" t="n">
-        <v>0.322525</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="C415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="D415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="E415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="F415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="G415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="H415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="I415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="J415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="K415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="L415" t="n">
-        <v>3.9501000000000004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>1.042124999895</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -17811,37 +17811,37 @@
         <v>466.0</v>
       </c>
       <c r="B467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="E467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="G467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="H467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="I467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="J467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="K467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="L467" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="468">
@@ -19027,37 +19027,37 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="C499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="D499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="E499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="F499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="G499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="H499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="I499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="J499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="K499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
       <c r="L499" t="n">
-        <v>1.3963157894</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="500">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="C518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="D518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="E518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="G518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="H518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="I518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="J518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="K518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
       <c r="L518" t="n">
-        <v>0.6450499999999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="519">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="C524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="D524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="E524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="F524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="G524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="H524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="I524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="J524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="K524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
       <c r="L524" t="n">
-        <v>6.531524998960499</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="525">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>5.2874249991585005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="D535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="E535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="F535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="I535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="J535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="K535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
       <c r="L535" t="n">
-        <v>1.244099999802</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>0.7022473687459999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -21345,37 +21345,37 @@
         <v>559.0</v>
       </c>
       <c r="B560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="C560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="D560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="E560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="F560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="G560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="H560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="I560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="J560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="K560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="L560" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561">
